--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse 2021 03\Workspace\CTSParabank\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB80C17-586A-4E16-86BF-FB3304D1A401}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F639C9-E325-440E-ABED-BFB4A48D5885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A52AA3A-C013-419B-921F-5436F3FDD808}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <t>Debit</t>
   </si>
   <si>
-    <t>1234871</t>
+    <t>1234897</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -491,7 +491,8 @@
     <col min="2" max="2" width="19.42578125" style="3" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="15.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="9.140625" style="3"/>
+    <col min="8" max="8" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="3"/>
     <col min="11" max="11" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="3"/>
   </cols>

--- a/src/test/resources/excel/TestData.xlsx
+++ b/src/test/resources/excel/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Eclipse 2021 03\Workspace\CTSParabank\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F639C9-E325-440E-ABED-BFB4A48D5885}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECB8BF5-E076-430E-A673-85682FF95F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8A52AA3A-C013-419B-921F-5436F3FDD808}"/>
   </bookViews>
@@ -116,7 +116,7 @@
     <t>Debit</t>
   </si>
   <si>
-    <t>1234897</t>
+    <t>1234899</t>
   </si>
 </sst>
 </file>
